--- a/inst/extdata/example_struc.xlsx
+++ b/inst/extdata/example_struc.xlsx
@@ -12,12 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Titel</t>
   </si>
   <si>
     <t xml:space="preserve">Ebene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
   </si>
 </sst>
 </file>
@@ -358,141 +388,43 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="n">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12" t="n">
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15"/>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="n">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/example_struc.xlsx
+++ b/inst/extdata/example_struc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -372,10 +372,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/inst/extdata/example_struc.xlsx
+++ b/inst/extdata/example_struc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -372,10 +372,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
